--- a/DataDocuments/广州希创临时文件.xlsx
+++ b/DataDocuments/广州希创临时文件.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SelfDocument\CSharp\广州希创旺思管理系统\DataDocuments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D476C8E-3599-4887-9AF7-6CD3D4473463}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{906E7440-BD11-4421-9355-73BC1B79EA58}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" xr2:uid="{4B715783-3127-461F-B38C-3DA4E75BC12F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="47">
   <si>
     <t>A002</t>
   </si>
@@ -134,6 +134,41 @@
   <si>
     <t>公司</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cargoid</t>
+  </si>
+  <si>
+    <t>cargoname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cargomodal</t>
+  </si>
+  <si>
+    <t>cargoamount</t>
+  </si>
+  <si>
+    <t>cargosale</t>
+  </si>
+  <si>
+    <t>cargopurchase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cargoware</t>
+  </si>
+  <si>
+    <t>cargounit</t>
+  </si>
+  <si>
+    <t>cargotime</t>
+  </si>
+  <si>
+    <t>cargoremark</t>
+  </si>
+  <si>
+    <t>caregostatus</t>
   </si>
 </sst>
 </file>
@@ -509,7 +544,7 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -517,68 +552,70 @@
     <col min="9" max="9" width="15.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1">
-        <v>680</v>
-      </c>
-      <c r="F1" s="1">
-        <v>1017.25</v>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" t="s">
+        <v>40</v>
       </c>
       <c r="G1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="3">
-        <f ca="1">NOW()</f>
-        <v>43455.397860648147</v>
-      </c>
-      <c r="K1" s="2" t="b">
-        <v>1</v>
+        <v>42</v>
+      </c>
+      <c r="H1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K1" t="s">
+        <v>46</v>
       </c>
       <c r="L1" s="1"/>
     </row>
     <row r="2" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D2" s="1">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="E2" s="1">
-        <v>18</v>
+        <v>680</v>
       </c>
       <c r="F2" s="1">
-        <v>25.65</v>
+        <v>1017.25</v>
       </c>
       <c r="G2" t="s">
         <v>35</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I2" s="3">
-        <f t="shared" ref="I2:I14" ca="1" si="0">NOW()</f>
-        <v>43455.397860648147</v>
+        <f ca="1">NOW()</f>
+        <v>43459.424003935186</v>
       </c>
       <c r="K2" s="2" t="b">
         <v>1</v>
@@ -587,22 +624,22 @@
     </row>
     <row r="3" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D3" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E3" s="1">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F3" s="1">
-        <v>30</v>
+        <v>25.65</v>
       </c>
       <c r="G3" t="s">
         <v>35</v>
@@ -611,110 +648,110 @@
         <v>7</v>
       </c>
       <c r="I3" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>43455.397860648147</v>
+        <f t="shared" ref="I3:I15" ca="1" si="0">NOW()</f>
+        <v>43459.424003935186</v>
       </c>
       <c r="K3" s="2" t="b">
         <v>1</v>
       </c>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1">
+        <v>50</v>
+      </c>
+      <c r="E4" s="1">
+        <v>16</v>
+      </c>
+      <c r="F4" s="1">
+        <v>30</v>
+      </c>
+      <c r="G4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>43459.424003935186</v>
+      </c>
+      <c r="K4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1">
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
         <v>800</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F5" s="1">
         <v>0</v>
       </c>
-      <c r="G4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H4" s="1" t="s">
+      <c r="G5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>43455.397860648147</v>
-      </c>
-      <c r="K4" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="L4" s="1"/>
-    </row>
-    <row r="5" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="I5" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>43459.424003935186</v>
+      </c>
+      <c r="K5" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="D5" s="1">
-        <v>50</v>
-      </c>
-      <c r="E5" s="1">
-        <v>620</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1250</v>
-      </c>
-      <c r="G5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I5" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>43455.397860648147</v>
-      </c>
-      <c r="K5" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="L5" s="1"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="D6" s="1">
         <v>50</v>
       </c>
       <c r="E6" s="1">
-        <v>18</v>
+        <v>620</v>
       </c>
       <c r="F6" s="1">
-        <v>25.65</v>
+        <v>1250</v>
       </c>
       <c r="G6" t="s">
         <v>35</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="I6" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>43455.397860648147</v>
+        <v>43459.424003935186</v>
       </c>
       <c r="K6" s="2" t="b">
         <v>1</v>
@@ -723,32 +760,32 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D7" s="1">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="E7" s="1">
-        <v>620</v>
+        <v>18</v>
       </c>
       <c r="F7" s="1">
-        <v>1250</v>
+        <v>25.65</v>
       </c>
       <c r="G7" t="s">
         <v>35</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="I7" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>43455.397860648147</v>
+        <v>43459.424003935186</v>
       </c>
       <c r="K7" s="2" t="b">
         <v>1</v>
@@ -757,7 +794,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>20</v>
@@ -766,13 +803,13 @@
         <v>21</v>
       </c>
       <c r="D8" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8" s="1">
-        <v>10500</v>
+        <v>620</v>
       </c>
       <c r="F8" s="1">
-        <v>12200</v>
+        <v>1250</v>
       </c>
       <c r="G8" t="s">
         <v>35</v>
@@ -782,7 +819,7 @@
       </c>
       <c r="I8" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>43455.397860648147</v>
+        <v>43459.424003935186</v>
       </c>
       <c r="K8" s="2" t="b">
         <v>1</v>
@@ -791,100 +828,100 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D9" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E9" s="1">
-        <v>620</v>
+        <v>10500</v>
       </c>
       <c r="F9" s="1">
-        <v>1250</v>
+        <v>12200</v>
       </c>
       <c r="G9" t="s">
         <v>35</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="I9" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>43455.397860648147</v>
+        <v>43459.424003935186</v>
       </c>
       <c r="K9" s="2" t="b">
         <v>1</v>
       </c>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2</v>
+      </c>
+      <c r="E10" s="1">
+        <v>620</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1250</v>
+      </c>
+      <c r="G10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>43459.424003935186</v>
+      </c>
+      <c r="K10" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="1">
-        <v>1</v>
-      </c>
-      <c r="E10" s="1">
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
         <v>4680</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F11" s="1">
         <v>5400</v>
       </c>
-      <c r="G10" t="s">
-        <v>35</v>
-      </c>
-      <c r="H10" s="1" t="s">
+      <c r="G11" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>43455.397860648147</v>
-      </c>
-      <c r="K10" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="L10" s="1"/>
-    </row>
-    <row r="11" spans="1:12" ht="57" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1</v>
-      </c>
-      <c r="E11" s="1">
-        <v>2050</v>
-      </c>
-      <c r="F11" s="1">
-        <v>2820</v>
-      </c>
-      <c r="G11" t="s">
-        <v>35</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="I11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>43455.397860648147</v>
+        <v>43459.424003935186</v>
       </c>
       <c r="K11" s="2" t="b">
         <v>1</v>
@@ -893,53 +930,53 @@
     </row>
     <row r="12" spans="1:12" ht="57" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2050</v>
+      </c>
+      <c r="F12" s="1">
+        <v>2820</v>
+      </c>
+      <c r="G12" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>43459.424003935186</v>
+      </c>
+      <c r="K12" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="1:12" ht="57" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="1" t="s">
+      <c r="B13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="1">
-        <v>1</v>
-      </c>
-      <c r="E12" s="1">
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
         <v>750</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0</v>
-      </c>
-      <c r="G12" t="s">
-        <v>35</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I12" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>43455.397860648147</v>
-      </c>
-      <c r="K12" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="L12" s="1"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="1">
-        <v>1</v>
-      </c>
-      <c r="E13" s="1">
-        <v>0</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -948,11 +985,11 @@
         <v>35</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I13" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>43455.397860648147</v>
+        <v>43459.424003935186</v>
       </c>
       <c r="K13" s="2" t="b">
         <v>1</v>
@@ -961,7 +998,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>5</v>
@@ -970,13 +1007,13 @@
         <v>18</v>
       </c>
       <c r="D14" s="1">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="E14" s="1">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>25.65</v>
+        <v>0</v>
       </c>
       <c r="G14" t="s">
         <v>35</v>
@@ -986,7 +1023,7 @@
       </c>
       <c r="I14" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>43455.397860648147</v>
+        <v>43459.424003935186</v>
       </c>
       <c r="K14" s="2" t="b">
         <v>1</v>
@@ -994,14 +1031,37 @@
       <c r="L14" s="1"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="K15" s="1"/>
+      <c r="A15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="1">
+        <v>50</v>
+      </c>
+      <c r="E15" s="1">
+        <v>18</v>
+      </c>
+      <c r="F15" s="1">
+        <v>25.65</v>
+      </c>
+      <c r="G15" t="s">
+        <v>35</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I15" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>43459.424003935186</v>
+      </c>
+      <c r="K15" s="2" t="b">
+        <v>1</v>
+      </c>
       <c r="L15" s="1"/>
     </row>
   </sheetData>
